--- a/Base/Teams/Lions/Players Yards Data.xlsx
+++ b/Base/Teams/Lions/Players Yards Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
   <si>
     <t>J.Goff</t>
   </si>
@@ -41,6 +41,9 @@
     <t>J.Cabinda</t>
   </si>
   <si>
+    <t>C.Reynolds</t>
+  </si>
+  <si>
     <t>T.Williams</t>
   </si>
   <si>
@@ -78,6 +81,9 @@
   </si>
   <si>
     <t>C.Taumoepeau</t>
+  </si>
+  <si>
+    <t>S.Zylstra</t>
   </si>
   <si>
     <t>Yards list</t>
@@ -441,13 +447,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,10 +500,10 @@
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>16</v>
@@ -514,76 +520,88 @@
       <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W2" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="X2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -593,13 +611,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,10 +664,10 @@
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>16</v>
@@ -666,76 +684,88 @@
       <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W2" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="X2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
